--- a/Defect_FT_13.xlsx
+++ b/Defect_FT_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soham\Desktop\openEMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A93F03-1082-40C8-A345-6562FF4CEE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174958F6-E1CB-40F7-9B1E-5CD340D9413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E4AA9FEC-2327-4A18-8B54-E606657E9F6B}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Field</t>
   </si>
@@ -294,9 +316,6 @@
   </si>
   <si>
     <t>Attachments</t>
-  </si>
-  <si>
-    <t>(Optional) Screenshot of duplicate entries in patient list.</t>
   </si>
   <si>
     <t>Assigned To</t>
@@ -422,6 +441,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8049768-E69F-4FD4-B1D6-B8C8D834F9A8}">
   <dimension ref="D5:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -782,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -809,7 +892,7 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="12" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
@@ -822,7 +905,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.3">
@@ -830,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -889,25 +972,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
+      <c r="E22" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -915,10 +998,10 @@
     </row>
     <row r="25" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
